--- a/output/intered.xlsx
+++ b/output/intered.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -672,7 +681,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ71"/>
+  <dimension ref="A1:AM71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -681,7 +690,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,10 +799,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -892,15 +910,24 @@
         <v>0.1407253581155942</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>173017</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -999,15 +1026,24 @@
         <v>0.1407253581155942</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>406338</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1106,15 +1142,24 @@
         <v>0.1407253581155942</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>179551</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1213,15 +1258,24 @@
         <v>0.1407253581155942</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>108866</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1320,15 +1374,24 @@
         <v>0.1407253581155942</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>594772</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1427,15 +1490,24 @@
         <v>0.1407253581155942</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>25723</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1534,15 +1606,24 @@
         <v>0.1407253581155942</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>57427</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1641,15 +1722,24 @@
         <v>0.1407253581155942</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>157781</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1748,15 +1838,24 @@
         <v>0.1407253581155942</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>569410</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1855,15 +1954,24 @@
         <v>0.1407253581155942</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>8000</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1962,15 +2070,24 @@
         <v>0.1407253581155942</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2069,15 +2186,24 @@
         <v>0.1407253581155942</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>910487</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2176,15 +2302,24 @@
         <v>0.1083460777747477</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>14975</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2283,15 +2418,24 @@
         <v>0.1083460777747477</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>384023</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2390,15 +2534,24 @@
         <v>0.1083460777747477</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>225626</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2497,15 +2650,24 @@
         <v>0.1083460777747477</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>327977</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2604,15 +2766,24 @@
         <v>0.1083460777747477</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>571015</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2711,15 +2882,24 @@
         <v>0.1083460777747477</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>196165</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2818,15 +2998,24 @@
         <v>0.1083460777747477</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>7500</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2925,15 +3114,24 @@
         <v>0.1083460777747477</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>635287</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3032,15 +3230,24 @@
         <v>0.1083460777747477</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>36150</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3139,15 +3346,24 @@
         <v>0.1083460777747477</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>7841</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3246,15 +3462,24 @@
         <v>0.1083460777747477</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>4219</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3353,15 +3578,24 @@
         <v>0.1083460777747477</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>1203129</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3460,15 +3694,24 @@
         <v>0.1083460777747477</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>34500</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3567,15 +3810,24 @@
         <v>0.1083460777747477</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>923909</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3674,15 +3926,24 @@
         <v>0.1083460777747477</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>109267</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3781,15 +4042,24 @@
         <v>0.2304250607365871</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>10000</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3888,15 +4158,24 @@
         <v>0.2304250607365871</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>539921</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -3995,15 +4274,24 @@
         <v>0.2304250607365871</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>71571</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4102,15 +4390,24 @@
         <v>0.2304250607365871</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>1</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>391380</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4209,15 +4506,24 @@
         <v>0.2304250607365871</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>1</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>375588</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4316,15 +4622,24 @@
         <v>0.2304250607365871</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>712401</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4423,15 +4738,24 @@
         <v>0.2304250607365871</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>1</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>15094</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4530,15 +4854,24 @@
         <v>0.2304250607365871</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>1</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>1484550</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4637,15 +4970,24 @@
         <v>0.2304250607365871</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>17453</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4744,15 +5086,24 @@
         <v>0.2304250607365871</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>1</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>37757</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4851,15 +5202,24 @@
         <v>0.2304250607365871</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>1</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>698066</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4958,15 +5318,24 @@
         <v>0.2304250607365871</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>1</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>1026530</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5065,15 +5434,24 @@
         <v>0.2304250607365871</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>16500</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5172,15 +5550,24 @@
         <v>0.1513314888307409</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>1</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>280773.135</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5279,15 +5666,24 @@
         <v>0.1513314888307409</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>2436.5</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5386,15 +5782,24 @@
         <v>0.1513314888307409</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>1</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>145743.81</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5493,15 +5898,24 @@
         <v>0.1513314888307409</v>
       </c>
       <c r="AI45">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>1</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>163717.08</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -5600,15 +6014,24 @@
         <v>0.1513314888307409</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>1</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>12000</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5707,15 +6130,24 @@
         <v>0.1513314888307409</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
         <v>11400.705</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5814,15 +6246,24 @@
         <v>0.1513314888307409</v>
       </c>
       <c r="AI48">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>1</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
         <v>92500</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -5921,15 +6362,24 @@
         <v>0.1513314888307409</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>1</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
         <v>89322.395</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -6028,15 +6478,24 @@
         <v>0.1513314888307409</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
         <v>53963.26</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6135,15 +6594,24 @@
         <v>0.1513314888307409</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
         <v>160617.27</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6242,15 +6710,24 @@
         <v>0.35027419740205</v>
       </c>
       <c r="AI52">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>1</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
         <v>280773.135</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6349,15 +6826,24 @@
         <v>0.35027419740205</v>
       </c>
       <c r="AI53">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
         <v>2436.5</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6456,15 +6942,24 @@
         <v>0.35027419740205</v>
       </c>
       <c r="AI54">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>1</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54">
         <v>145743.81</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6563,15 +7058,24 @@
         <v>0.35027419740205</v>
       </c>
       <c r="AI55">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>1</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
         <v>163717.08</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -6670,15 +7174,24 @@
         <v>0.35027419740205</v>
       </c>
       <c r="AI56">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>1</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
         <v>12000</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6777,15 +7290,24 @@
         <v>0.35027419740205</v>
       </c>
       <c r="AI57">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
         <v>11400.705</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -6884,15 +7406,24 @@
         <v>0.35027419740205</v>
       </c>
       <c r="AI58">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>1</v>
+      </c>
+      <c r="AL58">
+        <v>1</v>
+      </c>
+      <c r="AM58">
         <v>92500</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -6991,15 +7522,24 @@
         <v>0.35027419740205</v>
       </c>
       <c r="AI59">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>1</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59">
         <v>89322.395</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:39">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7098,15 +7638,24 @@
         <v>0.35027419740205</v>
       </c>
       <c r="AI60">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>0</v>
+      </c>
+      <c r="AL60">
+        <v>1</v>
+      </c>
+      <c r="AM60">
         <v>53963.26</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:39">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7205,15 +7754,24 @@
         <v>0.35027419740205</v>
       </c>
       <c r="AI61">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
         <v>160617.27</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:39">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7312,15 +7870,24 @@
         <v>0.3357929879924192</v>
       </c>
       <c r="AI62">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>1</v>
+      </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
+      <c r="AM62">
         <v>20000</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:39">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -7419,15 +7986,24 @@
         <v>0.3357929879924192</v>
       </c>
       <c r="AI63">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>1</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AM63">
         <v>515646</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -7526,15 +8102,24 @@
         <v>0.3357929879924192</v>
       </c>
       <c r="AI64">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>1</v>
+      </c>
+      <c r="AL64">
+        <v>1</v>
+      </c>
+      <c r="AM64">
         <v>375305</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:39">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -7633,15 +8218,24 @@
         <v>0.3357929879924192</v>
       </c>
       <c r="AI65">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>1</v>
+      </c>
+      <c r="AL65">
+        <v>1</v>
+      </c>
+      <c r="AM65">
         <v>291611</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:39">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -7740,15 +8334,24 @@
         <v>0.3357929879924192</v>
       </c>
       <c r="AI66">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ66">
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <v>1</v>
+      </c>
+      <c r="AL66">
+        <v>1</v>
+      </c>
+      <c r="AM66">
         <v>20000</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:39">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -7847,15 +8450,24 @@
         <v>0.3357929879924192</v>
       </c>
       <c r="AI67">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
+      <c r="AL67">
+        <v>1</v>
+      </c>
+      <c r="AM67">
         <v>18500</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:39">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -7954,15 +8566,24 @@
         <v>0.3357929879924192</v>
       </c>
       <c r="AI68">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>1</v>
+      </c>
+      <c r="AL68">
+        <v>1</v>
+      </c>
+      <c r="AM68">
         <v>115418</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:39">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8061,15 +8682,24 @@
         <v>0.3357929879924192</v>
       </c>
       <c r="AI69">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ69">
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <v>1</v>
+      </c>
+      <c r="AL69">
+        <v>1</v>
+      </c>
+      <c r="AM69">
         <v>40600</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:39">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -8168,15 +8798,24 @@
         <v>0.3357929879924192</v>
       </c>
       <c r="AI70">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
+      <c r="AL70">
+        <v>1</v>
+      </c>
+      <c r="AM70">
         <v>119609</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:39">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -8275,9 +8914,18 @@
         <v>0.3357929879924192</v>
       </c>
       <c r="AI71">
-        <v>1</v>
+        <v>1992</v>
       </c>
       <c r="AJ71">
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AM71">
         <v>636681</v>
       </c>
     </row>

--- a/output/intered.xlsx
+++ b/output/intered.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
-  </si>
-  <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -681,7 +687,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM71"/>
+  <dimension ref="A1:AO71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,7 +696,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -808,10 +814,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -868,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>859130</v>
+        <v>888304</v>
       </c>
       <c r="U2">
         <v>43</v>
@@ -904,30 +916,36 @@
         <v>2565774</v>
       </c>
       <c r="AG2">
-        <v>6105012</v>
+        <v>6134186</v>
       </c>
       <c r="AH2">
-        <v>0.1407253581155942</v>
+        <v>0.1448120418911328</v>
       </c>
       <c r="AI2">
+        <v>0.1700796161055436</v>
+      </c>
+      <c r="AJ2">
         <v>1992</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>1</v>
       </c>
       <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>173017</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -984,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>859130</v>
+        <v>888304</v>
       </c>
       <c r="U3">
         <v>43</v>
@@ -1020,30 +1038,36 @@
         <v>1570343</v>
       </c>
       <c r="AG3">
-        <v>6105012</v>
+        <v>6134186</v>
       </c>
       <c r="AH3">
-        <v>0.1407253581155942</v>
+        <v>0.1448120418911328</v>
       </c>
       <c r="AI3">
+        <v>0.1700796161055436</v>
+      </c>
+      <c r="AJ3">
         <v>1992</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>406338</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1100,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>859130</v>
+        <v>888304</v>
       </c>
       <c r="U4">
         <v>43</v>
@@ -1136,30 +1160,36 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>6105012</v>
+        <v>6134186</v>
       </c>
       <c r="AH4">
-        <v>0.1407253581155942</v>
+        <v>0.1448120418911328</v>
       </c>
       <c r="AI4">
+        <v>0.1700796161055436</v>
+      </c>
+      <c r="AJ4">
         <v>1992</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>1</v>
       </c>
       <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>179551</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1216,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>859130</v>
+        <v>888304</v>
       </c>
       <c r="U5">
         <v>43</v>
@@ -1252,30 +1282,36 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>6105012</v>
+        <v>6134186</v>
       </c>
       <c r="AH5">
-        <v>0.1407253581155942</v>
+        <v>0.1448120418911328</v>
       </c>
       <c r="AI5">
+        <v>0.1700796161055436</v>
+      </c>
+      <c r="AJ5">
         <v>1992</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>108866</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1332,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>859130</v>
+        <v>888304</v>
       </c>
       <c r="U6">
         <v>43</v>
@@ -1368,30 +1404,36 @@
         <v>4266738</v>
       </c>
       <c r="AG6">
-        <v>6105012</v>
+        <v>6134186</v>
       </c>
       <c r="AH6">
-        <v>0.1407253581155942</v>
+        <v>0.1448120418911328</v>
       </c>
       <c r="AI6">
+        <v>0.1700796161055436</v>
+      </c>
+      <c r="AJ6">
         <v>1992</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>1</v>
       </c>
       <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>594772</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1448,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>859130</v>
+        <v>888304</v>
       </c>
       <c r="U7">
         <v>43</v>
@@ -1484,30 +1526,36 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>6105012</v>
+        <v>6134186</v>
       </c>
       <c r="AH7">
-        <v>0.1407253581155942</v>
+        <v>0.1448120418911328</v>
       </c>
       <c r="AI7">
+        <v>0.1700796161055436</v>
+      </c>
+      <c r="AJ7">
         <v>1992</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7">
         <v>1</v>
       </c>
       <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>25723</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1564,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>859130</v>
+        <v>888304</v>
       </c>
       <c r="U8">
         <v>43</v>
@@ -1600,30 +1648,36 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>6105012</v>
+        <v>6134186</v>
       </c>
       <c r="AH8">
-        <v>0.1407253581155942</v>
+        <v>0.1448120418911328</v>
       </c>
       <c r="AI8">
+        <v>0.1700796161055436</v>
+      </c>
+      <c r="AJ8">
         <v>1992</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <v>1</v>
       </c>
       <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>57427</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1680,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>859130</v>
+        <v>888304</v>
       </c>
       <c r="U9">
         <v>43</v>
@@ -1716,30 +1770,36 @@
         <v>2282830</v>
       </c>
       <c r="AG9">
-        <v>6105012</v>
+        <v>6134186</v>
       </c>
       <c r="AH9">
-        <v>0.1407253581155942</v>
+        <v>0.1448120418911328</v>
       </c>
       <c r="AI9">
+        <v>0.1700796161055436</v>
+      </c>
+      <c r="AJ9">
         <v>1992</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9">
         <v>1</v>
       </c>
       <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>157781</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1796,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>859130</v>
+        <v>888304</v>
       </c>
       <c r="U10">
         <v>43</v>
@@ -1832,30 +1892,36 @@
         <v>5201043</v>
       </c>
       <c r="AG10">
-        <v>6105012</v>
+        <v>6134186</v>
       </c>
       <c r="AH10">
-        <v>0.1407253581155942</v>
+        <v>0.1448120418911328</v>
       </c>
       <c r="AI10">
+        <v>0.1700796161055436</v>
+      </c>
+      <c r="AJ10">
         <v>1992</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10">
         <v>1</v>
       </c>
       <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>569410</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1912,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>859130</v>
+        <v>888304</v>
       </c>
       <c r="U11">
         <v>43</v>
@@ -1948,30 +2014,36 @@
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>6105012</v>
+        <v>6134186</v>
       </c>
       <c r="AH11">
-        <v>0.1407253581155942</v>
+        <v>0.1448120418911328</v>
       </c>
       <c r="AI11">
+        <v>0.1700796161055436</v>
+      </c>
+      <c r="AJ11">
         <v>1992</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11">
         <v>1</v>
       </c>
       <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>8000</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2028,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>859130</v>
+        <v>888304</v>
       </c>
       <c r="U12">
         <v>43</v>
@@ -2064,30 +2136,36 @@
         <v>0</v>
       </c>
       <c r="AG12">
-        <v>6105012</v>
+        <v>6134186</v>
       </c>
       <c r="AH12">
-        <v>0.1407253581155942</v>
+        <v>0.1448120418911328</v>
       </c>
       <c r="AI12">
+        <v>0.1700796161055436</v>
+      </c>
+      <c r="AJ12">
         <v>1992</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12">
         <v>1</v>
       </c>
       <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2144,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>859130</v>
+        <v>888304</v>
       </c>
       <c r="U13">
         <v>43</v>
@@ -2180,30 +2258,36 @@
         <v>1336135</v>
       </c>
       <c r="AG13">
-        <v>6105012</v>
+        <v>6134186</v>
       </c>
       <c r="AH13">
-        <v>0.1407253581155942</v>
+        <v>0.1448120418911328</v>
       </c>
       <c r="AI13">
+        <v>0.1700796161055436</v>
+      </c>
+      <c r="AJ13">
         <v>1992</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13">
         <v>1</v>
       </c>
       <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>910487</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2260,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>1145002</v>
+        <v>1166337</v>
       </c>
       <c r="U14">
         <v>45</v>
@@ -2296,30 +2380,36 @@
         <v>0</v>
       </c>
       <c r="AG14">
-        <v>10568006</v>
+        <v>10589341</v>
       </c>
       <c r="AH14">
-        <v>0.1083460777747477</v>
+        <v>0.1101425480584675</v>
       </c>
       <c r="AI14">
+        <v>0.6078157271543149</v>
+      </c>
+      <c r="AJ14">
         <v>1992</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
         <v>0</v>
       </c>
       <c r="AL14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>14975</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2376,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1145002</v>
+        <v>1166337</v>
       </c>
       <c r="U15">
         <v>45</v>
@@ -2412,30 +2502,36 @@
         <v>0</v>
       </c>
       <c r="AG15">
-        <v>10568006</v>
+        <v>10589341</v>
       </c>
       <c r="AH15">
-        <v>0.1083460777747477</v>
+        <v>0.1101425480584675</v>
       </c>
       <c r="AI15">
+        <v>0.6078157271543149</v>
+      </c>
+      <c r="AJ15">
         <v>1992</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>384023</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2492,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1145002</v>
+        <v>1166337</v>
       </c>
       <c r="U16">
         <v>45</v>
@@ -2528,30 +2624,36 @@
         <v>9912922</v>
       </c>
       <c r="AG16">
-        <v>10568006</v>
+        <v>10589341</v>
       </c>
       <c r="AH16">
-        <v>0.1083460777747477</v>
+        <v>0.1101425480584675</v>
       </c>
       <c r="AI16">
+        <v>0.6078157271543149</v>
+      </c>
+      <c r="AJ16">
         <v>1992</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16">
         <v>1</v>
       </c>
       <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>225626</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2608,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1145002</v>
+        <v>1166337</v>
       </c>
       <c r="U17">
         <v>45</v>
@@ -2644,30 +2746,36 @@
         <v>14532818.83333333</v>
       </c>
       <c r="AG17">
-        <v>10568006</v>
+        <v>10589341</v>
       </c>
       <c r="AH17">
-        <v>0.1083460777747477</v>
+        <v>0.1101425480584675</v>
       </c>
       <c r="AI17">
+        <v>0.6078157271543149</v>
+      </c>
+      <c r="AJ17">
         <v>1992</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17">
         <v>1</v>
       </c>
       <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>327977</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2724,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>1145002</v>
+        <v>1166337</v>
       </c>
       <c r="U18">
         <v>45</v>
@@ -2760,30 +2868,36 @@
         <v>13056447</v>
       </c>
       <c r="AG18">
-        <v>10568006</v>
+        <v>10589341</v>
       </c>
       <c r="AH18">
-        <v>0.1083460777747477</v>
+        <v>0.1101425480584675</v>
       </c>
       <c r="AI18">
+        <v>0.6078157271543149</v>
+      </c>
+      <c r="AJ18">
         <v>1992</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
         <v>0</v>
       </c>
       <c r="AL18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>571015</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2840,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1145002</v>
+        <v>1166337</v>
       </c>
       <c r="U19">
         <v>45</v>
@@ -2876,30 +2990,36 @@
         <v>0</v>
       </c>
       <c r="AG19">
-        <v>10568006</v>
+        <v>10589341</v>
       </c>
       <c r="AH19">
-        <v>0.1083460777747477</v>
+        <v>0.1101425480584675</v>
       </c>
       <c r="AI19">
+        <v>0.6078157271543149</v>
+      </c>
+      <c r="AJ19">
         <v>1992</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19">
         <v>1</v>
       </c>
       <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>196165</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2956,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1145002</v>
+        <v>1166337</v>
       </c>
       <c r="U20">
         <v>45</v>
@@ -2992,30 +3112,36 @@
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>10568006</v>
+        <v>10589341</v>
       </c>
       <c r="AH20">
-        <v>0.1083460777747477</v>
+        <v>0.1101425480584675</v>
       </c>
       <c r="AI20">
+        <v>0.6078157271543149</v>
+      </c>
+      <c r="AJ20">
         <v>1992</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20">
         <v>1</v>
       </c>
       <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>7500</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3072,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1145002</v>
+        <v>1166337</v>
       </c>
       <c r="U21">
         <v>45</v>
@@ -3108,30 +3234,36 @@
         <v>27999397</v>
       </c>
       <c r="AG21">
-        <v>10568006</v>
+        <v>10589341</v>
       </c>
       <c r="AH21">
-        <v>0.1083460777747477</v>
+        <v>0.1101425480584675</v>
       </c>
       <c r="AI21">
+        <v>0.6078157271543149</v>
+      </c>
+      <c r="AJ21">
         <v>1992</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21">
         <v>1</v>
       </c>
       <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>635287</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3188,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>1145002</v>
+        <v>1166337</v>
       </c>
       <c r="U22">
         <v>45</v>
@@ -3224,30 +3356,36 @@
         <v>25548911</v>
       </c>
       <c r="AG22">
-        <v>10568006</v>
+        <v>10589341</v>
       </c>
       <c r="AH22">
-        <v>0.1083460777747477</v>
+        <v>0.1101425480584675</v>
       </c>
       <c r="AI22">
+        <v>0.6078157271543149</v>
+      </c>
+      <c r="AJ22">
         <v>1992</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22">
         <v>1</v>
       </c>
       <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>36150</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3304,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>1145002</v>
+        <v>1166337</v>
       </c>
       <c r="U23">
         <v>45</v>
@@ -3340,30 +3478,36 @@
         <v>0</v>
       </c>
       <c r="AG23">
-        <v>10568006</v>
+        <v>10589341</v>
       </c>
       <c r="AH23">
-        <v>0.1083460777747477</v>
+        <v>0.1101425480584675</v>
       </c>
       <c r="AI23">
+        <v>0.6078157271543149</v>
+      </c>
+      <c r="AJ23">
         <v>1992</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23">
         <v>1</v>
       </c>
       <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>7841</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3420,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="T24">
-        <v>1145002</v>
+        <v>1166337</v>
       </c>
       <c r="U24">
         <v>45</v>
@@ -3456,30 +3600,36 @@
         <v>1500000</v>
       </c>
       <c r="AG24">
-        <v>10568006</v>
+        <v>10589341</v>
       </c>
       <c r="AH24">
-        <v>0.1083460777747477</v>
+        <v>0.1101425480584675</v>
       </c>
       <c r="AI24">
+        <v>0.6078157271543149</v>
+      </c>
+      <c r="AJ24">
         <v>1992</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
         <v>0</v>
       </c>
       <c r="AL24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>4219</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3536,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>1145002</v>
+        <v>1166337</v>
       </c>
       <c r="U25">
         <v>45</v>
@@ -3572,30 +3722,36 @@
         <v>38993399</v>
       </c>
       <c r="AG25">
-        <v>10568006</v>
+        <v>10589341</v>
       </c>
       <c r="AH25">
-        <v>0.1083460777747477</v>
+        <v>0.1101425480584675</v>
       </c>
       <c r="AI25">
+        <v>0.6078157271543149</v>
+      </c>
+      <c r="AJ25">
         <v>1992</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25">
         <v>1</v>
       </c>
       <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>1203129</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3652,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <v>1145002</v>
+        <v>1166337</v>
       </c>
       <c r="U26">
         <v>45</v>
@@ -3688,30 +3844,36 @@
         <v>0</v>
       </c>
       <c r="AG26">
-        <v>10568006</v>
+        <v>10589341</v>
       </c>
       <c r="AH26">
-        <v>0.1083460777747477</v>
+        <v>0.1101425480584675</v>
       </c>
       <c r="AI26">
+        <v>0.6078157271543149</v>
+      </c>
+      <c r="AJ26">
         <v>1992</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26">
         <v>1</v>
       </c>
       <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>34500</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3768,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <v>1145002</v>
+        <v>1166337</v>
       </c>
       <c r="U27">
         <v>45</v>
@@ -3804,30 +3966,36 @@
         <v>10283677</v>
       </c>
       <c r="AG27">
-        <v>10568006</v>
+        <v>10589341</v>
       </c>
       <c r="AH27">
-        <v>0.1083460777747477</v>
+        <v>0.1101425480584675</v>
       </c>
       <c r="AI27">
+        <v>0.6078157271543149</v>
+      </c>
+      <c r="AJ27">
         <v>1992</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27">
         <v>1</v>
       </c>
       <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>923909</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3884,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="T28">
-        <v>1145002</v>
+        <v>1166337</v>
       </c>
       <c r="U28">
         <v>45</v>
@@ -3920,30 +4088,36 @@
         <v>0</v>
       </c>
       <c r="AG28">
-        <v>10568006</v>
+        <v>10589341</v>
       </c>
       <c r="AH28">
-        <v>0.1083460777747477</v>
+        <v>0.1101425480584675</v>
       </c>
       <c r="AI28">
+        <v>0.6078157271543149</v>
+      </c>
+      <c r="AJ28">
         <v>1992</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
       <c r="AK28">
         <v>0</v>
       </c>
       <c r="AL28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>109267</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4000,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="T29">
-        <v>857693</v>
+        <v>924404</v>
       </c>
       <c r="U29">
         <v>44</v>
@@ -4036,30 +4210,36 @@
         <v>0</v>
       </c>
       <c r="AG29">
-        <v>3722221</v>
+        <v>3788932</v>
       </c>
       <c r="AH29">
-        <v>0.2304250607365871</v>
+        <v>0.2439748192894462</v>
       </c>
       <c r="AI29">
+        <v>0.2197980855819001</v>
+      </c>
+      <c r="AJ29">
         <v>1992</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
         <v>0</v>
       </c>
       <c r="AL29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>10000</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4116,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <v>857693</v>
+        <v>924404</v>
       </c>
       <c r="U30">
         <v>44</v>
@@ -4152,30 +4332,36 @@
         <v>0</v>
       </c>
       <c r="AG30">
-        <v>3722221</v>
+        <v>3788932</v>
       </c>
       <c r="AH30">
-        <v>0.2304250607365871</v>
+        <v>0.2439748192894462</v>
       </c>
       <c r="AI30">
+        <v>0.2197980855819001</v>
+      </c>
+      <c r="AJ30">
         <v>1992</v>
       </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
       <c r="AK30">
         <v>0</v>
       </c>
       <c r="AL30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
         <v>539921</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4232,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <v>857693</v>
+        <v>924404</v>
       </c>
       <c r="U31">
         <v>44</v>
@@ -4268,30 +4454,36 @@
         <v>0</v>
       </c>
       <c r="AG31">
-        <v>3722221</v>
+        <v>3788932</v>
       </c>
       <c r="AH31">
-        <v>0.2304250607365871</v>
+        <v>0.2439748192894462</v>
       </c>
       <c r="AI31">
+        <v>0.2197980855819001</v>
+      </c>
+      <c r="AJ31">
         <v>1992</v>
       </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
       <c r="AK31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31">
         <v>1</v>
       </c>
       <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
         <v>71571</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4348,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>857693</v>
+        <v>924404</v>
       </c>
       <c r="U32">
         <v>44</v>
@@ -4384,30 +4576,36 @@
         <v>2140362</v>
       </c>
       <c r="AG32">
-        <v>3722221</v>
+        <v>3788932</v>
       </c>
       <c r="AH32">
-        <v>0.2304250607365871</v>
+        <v>0.2439748192894462</v>
       </c>
       <c r="AI32">
+        <v>0.2197980855819001</v>
+      </c>
+      <c r="AJ32">
         <v>1992</v>
       </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
       <c r="AK32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32">
         <v>1</v>
       </c>
       <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
         <v>391380</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4464,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <v>857693</v>
+        <v>924404</v>
       </c>
       <c r="U33">
         <v>44</v>
@@ -4500,30 +4698,36 @@
         <v>0</v>
       </c>
       <c r="AG33">
-        <v>3722221</v>
+        <v>3788932</v>
       </c>
       <c r="AH33">
-        <v>0.2304250607365871</v>
+        <v>0.2439748192894462</v>
       </c>
       <c r="AI33">
+        <v>0.2197980855819001</v>
+      </c>
+      <c r="AJ33">
         <v>1992</v>
       </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
       <c r="AK33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33">
         <v>1</v>
       </c>
       <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
         <v>375588</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4580,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="T34">
-        <v>857693</v>
+        <v>924404</v>
       </c>
       <c r="U34">
         <v>44</v>
@@ -4616,30 +4820,36 @@
         <v>1979992</v>
       </c>
       <c r="AG34">
-        <v>3722221</v>
+        <v>3788932</v>
       </c>
       <c r="AH34">
-        <v>0.2304250607365871</v>
+        <v>0.2439748192894462</v>
       </c>
       <c r="AI34">
+        <v>0.2197980855819001</v>
+      </c>
+      <c r="AJ34">
         <v>1992</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
       <c r="AK34">
         <v>0</v>
       </c>
       <c r="AL34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34">
+        <v>1</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
         <v>712401</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4696,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="T35">
-        <v>857693</v>
+        <v>924404</v>
       </c>
       <c r="U35">
         <v>44</v>
@@ -4732,30 +4942,36 @@
         <v>0</v>
       </c>
       <c r="AG35">
-        <v>3722221</v>
+        <v>3788932</v>
       </c>
       <c r="AH35">
-        <v>0.2304250607365871</v>
+        <v>0.2439748192894462</v>
       </c>
       <c r="AI35">
+        <v>0.2197980855819001</v>
+      </c>
+      <c r="AJ35">
         <v>1992</v>
       </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
       <c r="AK35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35">
         <v>1</v>
       </c>
       <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
         <v>15094</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4812,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>857693</v>
+        <v>924404</v>
       </c>
       <c r="U36">
         <v>44</v>
@@ -4848,30 +5064,36 @@
         <v>2169360</v>
       </c>
       <c r="AG36">
-        <v>3722221</v>
+        <v>3788932</v>
       </c>
       <c r="AH36">
-        <v>0.2304250607365871</v>
+        <v>0.2439748192894462</v>
       </c>
       <c r="AI36">
+        <v>0.2197980855819001</v>
+      </c>
+      <c r="AJ36">
         <v>1992</v>
       </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
       <c r="AK36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36">
         <v>1</v>
       </c>
       <c r="AM36">
+        <v>1</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
         <v>1484550</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4928,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="T37">
-        <v>857693</v>
+        <v>924404</v>
       </c>
       <c r="U37">
         <v>44</v>
@@ -4964,30 +5186,36 @@
         <v>0</v>
       </c>
       <c r="AG37">
-        <v>3722221</v>
+        <v>3788932</v>
       </c>
       <c r="AH37">
-        <v>0.2304250607365871</v>
+        <v>0.2439748192894462</v>
       </c>
       <c r="AI37">
+        <v>0.2197980855819001</v>
+      </c>
+      <c r="AJ37">
         <v>1992</v>
       </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
       <c r="AK37">
         <v>0</v>
       </c>
       <c r="AL37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
         <v>17453</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5044,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="T38">
-        <v>857693</v>
+        <v>924404</v>
       </c>
       <c r="U38">
         <v>44</v>
@@ -5080,30 +5308,36 @@
         <v>1772730</v>
       </c>
       <c r="AG38">
-        <v>3722221</v>
+        <v>3788932</v>
       </c>
       <c r="AH38">
-        <v>0.2304250607365871</v>
+        <v>0.2439748192894462</v>
       </c>
       <c r="AI38">
+        <v>0.2197980855819001</v>
+      </c>
+      <c r="AJ38">
         <v>1992</v>
       </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
       <c r="AK38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38">
         <v>1</v>
       </c>
       <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>37757</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5160,7 +5394,7 @@
         <v>0</v>
       </c>
       <c r="T39">
-        <v>857693</v>
+        <v>924404</v>
       </c>
       <c r="U39">
         <v>44</v>
@@ -5196,30 +5430,36 @@
         <v>2304887</v>
       </c>
       <c r="AG39">
-        <v>3722221</v>
+        <v>3788932</v>
       </c>
       <c r="AH39">
-        <v>0.2304250607365871</v>
+        <v>0.2439748192894462</v>
       </c>
       <c r="AI39">
+        <v>0.2197980855819001</v>
+      </c>
+      <c r="AJ39">
         <v>1992</v>
       </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
       <c r="AK39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39">
         <v>1</v>
       </c>
       <c r="AM39">
+        <v>1</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
         <v>698066</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5276,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="T40">
-        <v>857693</v>
+        <v>924404</v>
       </c>
       <c r="U40">
         <v>44</v>
@@ -5312,30 +5552,36 @@
         <v>969468</v>
       </c>
       <c r="AG40">
-        <v>3722221</v>
+        <v>3788932</v>
       </c>
       <c r="AH40">
-        <v>0.2304250607365871</v>
+        <v>0.2439748192894462</v>
       </c>
       <c r="AI40">
+        <v>0.2197980855819001</v>
+      </c>
+      <c r="AJ40">
         <v>1992</v>
       </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
       <c r="AK40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL40">
         <v>1</v>
       </c>
       <c r="AM40">
+        <v>1</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
         <v>1026530</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5392,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="T41">
-        <v>857693</v>
+        <v>924404</v>
       </c>
       <c r="U41">
         <v>44</v>
@@ -5428,30 +5674,36 @@
         <v>0</v>
       </c>
       <c r="AG41">
-        <v>3722221</v>
+        <v>3788932</v>
       </c>
       <c r="AH41">
-        <v>0.2304250607365871</v>
+        <v>0.2439748192894462</v>
       </c>
       <c r="AI41">
+        <v>0.2197980855819001</v>
+      </c>
+      <c r="AJ41">
         <v>1992</v>
       </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
       <c r="AK41">
         <v>0</v>
       </c>
       <c r="AL41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
         <v>16500</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5508,7 +5760,7 @@
         <v>0</v>
       </c>
       <c r="T42">
-        <v>1025899.43</v>
+        <v>1030573.89</v>
       </c>
       <c r="U42">
         <v>32</v>
@@ -5544,30 +5796,36 @@
         <v>10602689</v>
       </c>
       <c r="AG42">
-        <v>6779153.75</v>
+        <v>6783828.21</v>
       </c>
       <c r="AH42">
-        <v>0.1513314888307409</v>
+        <v>0.1519162717712747</v>
       </c>
       <c r="AI42">
+        <v>0.6505794653665029</v>
+      </c>
+      <c r="AJ42">
         <v>1992</v>
       </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
       <c r="AK42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42">
         <v>1</v>
       </c>
       <c r="AM42">
+        <v>1</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
         <v>280773.135</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5624,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <v>1025899.43</v>
+        <v>1030573.89</v>
       </c>
       <c r="U43">
         <v>32</v>
@@ -5660,30 +5918,36 @@
         <v>0</v>
       </c>
       <c r="AG43">
-        <v>6779153.75</v>
+        <v>6783828.21</v>
       </c>
       <c r="AH43">
-        <v>0.1513314888307409</v>
+        <v>0.1519162717712747</v>
       </c>
       <c r="AI43">
+        <v>0.6505794653665029</v>
+      </c>
+      <c r="AJ43">
         <v>1992</v>
       </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
       <c r="AK43">
         <v>0</v>
       </c>
       <c r="AL43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
         <v>2436.5</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5740,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="T44">
-        <v>1025899.43</v>
+        <v>1030573.89</v>
       </c>
       <c r="U44">
         <v>32</v>
@@ -5776,30 +6040,36 @@
         <v>8039920</v>
       </c>
       <c r="AG44">
-        <v>6779153.75</v>
+        <v>6783828.21</v>
       </c>
       <c r="AH44">
-        <v>0.1513314888307409</v>
+        <v>0.1519162717712747</v>
       </c>
       <c r="AI44">
+        <v>0.6505794653665029</v>
+      </c>
+      <c r="AJ44">
         <v>1992</v>
       </c>
-      <c r="AJ44">
-        <v>0</v>
-      </c>
       <c r="AK44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44">
         <v>1</v>
       </c>
       <c r="AM44">
+        <v>1</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
         <v>145743.81</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5856,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <v>1025899.43</v>
+        <v>1030573.89</v>
       </c>
       <c r="U45">
         <v>32</v>
@@ -5892,30 +6162,36 @@
         <v>6909225</v>
       </c>
       <c r="AG45">
-        <v>6779153.75</v>
+        <v>6783828.21</v>
       </c>
       <c r="AH45">
-        <v>0.1513314888307409</v>
+        <v>0.1519162717712747</v>
       </c>
       <c r="AI45">
+        <v>0.6505794653665029</v>
+      </c>
+      <c r="AJ45">
         <v>1992</v>
       </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
       <c r="AK45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45">
         <v>1</v>
       </c>
       <c r="AM45">
+        <v>1</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
         <v>163717.08</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:41">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -5972,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="T46">
-        <v>1025899.43</v>
+        <v>1030573.89</v>
       </c>
       <c r="U46">
         <v>32</v>
@@ -6008,30 +6284,36 @@
         <v>2500000</v>
       </c>
       <c r="AG46">
-        <v>6779153.75</v>
+        <v>6783828.21</v>
       </c>
       <c r="AH46">
-        <v>0.1513314888307409</v>
+        <v>0.1519162717712747</v>
       </c>
       <c r="AI46">
+        <v>0.6505794653665029</v>
+      </c>
+      <c r="AJ46">
         <v>1992</v>
       </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
       <c r="AK46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46">
         <v>1</v>
       </c>
       <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
         <v>12000</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:41">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6088,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="T47">
-        <v>1025899.43</v>
+        <v>1030573.89</v>
       </c>
       <c r="U47">
         <v>32</v>
@@ -6124,30 +6406,36 @@
         <v>0</v>
       </c>
       <c r="AG47">
-        <v>6779153.75</v>
+        <v>6783828.21</v>
       </c>
       <c r="AH47">
-        <v>0.1513314888307409</v>
+        <v>0.1519162717712747</v>
       </c>
       <c r="AI47">
+        <v>0.6505794653665029</v>
+      </c>
+      <c r="AJ47">
         <v>1992</v>
       </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
       <c r="AK47">
         <v>0</v>
       </c>
       <c r="AL47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
         <v>11400.705</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:41">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6204,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="T48">
-        <v>1025899.43</v>
+        <v>1030573.89</v>
       </c>
       <c r="U48">
         <v>32</v>
@@ -6240,30 +6528,36 @@
         <v>0</v>
       </c>
       <c r="AG48">
-        <v>6779153.75</v>
+        <v>6783828.21</v>
       </c>
       <c r="AH48">
-        <v>0.1513314888307409</v>
+        <v>0.1519162717712747</v>
       </c>
       <c r="AI48">
+        <v>0.6505794653665029</v>
+      </c>
+      <c r="AJ48">
         <v>1992</v>
       </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
       <c r="AK48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48">
         <v>1</v>
       </c>
       <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
         <v>92500</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:41">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6320,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="T49">
-        <v>1025899.43</v>
+        <v>1030573.89</v>
       </c>
       <c r="U49">
         <v>32</v>
@@ -6356,30 +6650,36 @@
         <v>6615978</v>
       </c>
       <c r="AG49">
-        <v>6779153.75</v>
+        <v>6783828.21</v>
       </c>
       <c r="AH49">
-        <v>0.1513314888307409</v>
+        <v>0.1519162717712747</v>
       </c>
       <c r="AI49">
+        <v>0.6505794653665029</v>
+      </c>
+      <c r="AJ49">
         <v>1992</v>
       </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
       <c r="AK49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL49">
         <v>1</v>
       </c>
       <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
         <v>89322.395</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:41">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -6436,7 +6736,7 @@
         <v>0</v>
       </c>
       <c r="T50">
-        <v>1025899.43</v>
+        <v>1030573.89</v>
       </c>
       <c r="U50">
         <v>32</v>
@@ -6472,30 +6772,36 @@
         <v>0</v>
       </c>
       <c r="AG50">
-        <v>6779153.75</v>
+        <v>6783828.21</v>
       </c>
       <c r="AH50">
-        <v>0.1513314888307409</v>
+        <v>0.1519162717712747</v>
       </c>
       <c r="AI50">
+        <v>0.6505794653665029</v>
+      </c>
+      <c r="AJ50">
         <v>1992</v>
       </c>
-      <c r="AJ50">
-        <v>0</v>
-      </c>
       <c r="AK50">
         <v>0</v>
       </c>
       <c r="AL50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
         <v>53963.26</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:41">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6552,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="T51">
-        <v>1025899.43</v>
+        <v>1030573.89</v>
       </c>
       <c r="U51">
         <v>32</v>
@@ -6588,30 +6894,36 @@
         <v>8167890</v>
       </c>
       <c r="AG51">
-        <v>6779153.75</v>
+        <v>6783828.21</v>
       </c>
       <c r="AH51">
-        <v>0.1513314888307409</v>
+        <v>0.1519162717712747</v>
       </c>
       <c r="AI51">
+        <v>0.6505794653665029</v>
+      </c>
+      <c r="AJ51">
         <v>1992</v>
       </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
       <c r="AK51">
         <v>0</v>
       </c>
       <c r="AL51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51">
+        <v>1</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
         <v>160617.27</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:41">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6710,24 +7022,30 @@
         <v>0.35027419740205</v>
       </c>
       <c r="AI52">
+        <v>0.09517180271114277</v>
+      </c>
+      <c r="AJ52">
         <v>1992</v>
       </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
       <c r="AK52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52">
         <v>1</v>
       </c>
       <c r="AM52">
+        <v>1</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
         <v>280773.135</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:41">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6826,24 +7144,30 @@
         <v>0.35027419740205</v>
       </c>
       <c r="AI53">
+        <v>0.09517180271114277</v>
+      </c>
+      <c r="AJ53">
         <v>1992</v>
       </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
       <c r="AK53">
         <v>0</v>
       </c>
       <c r="AL53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
         <v>2436.5</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:41">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6942,24 +7266,30 @@
         <v>0.35027419740205</v>
       </c>
       <c r="AI54">
+        <v>0.09517180271114277</v>
+      </c>
+      <c r="AJ54">
         <v>1992</v>
       </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
       <c r="AK54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54">
         <v>1</v>
       </c>
       <c r="AM54">
+        <v>1</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
         <v>145743.81</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:41">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7058,24 +7388,30 @@
         <v>0.35027419740205</v>
       </c>
       <c r="AI55">
+        <v>0.09517180271114277</v>
+      </c>
+      <c r="AJ55">
         <v>1992</v>
       </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
       <c r="AK55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL55">
         <v>1</v>
       </c>
       <c r="AM55">
+        <v>1</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
         <v>163717.08</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:41">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7174,24 +7510,30 @@
         <v>0.35027419740205</v>
       </c>
       <c r="AI56">
+        <v>0.09517180271114277</v>
+      </c>
+      <c r="AJ56">
         <v>1992</v>
       </c>
-      <c r="AJ56">
-        <v>0</v>
-      </c>
       <c r="AK56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL56">
         <v>1</v>
       </c>
       <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
         <v>12000</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:41">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7290,24 +7632,30 @@
         <v>0.35027419740205</v>
       </c>
       <c r="AI57">
+        <v>0.09517180271114277</v>
+      </c>
+      <c r="AJ57">
         <v>1992</v>
       </c>
-      <c r="AJ57">
-        <v>0</v>
-      </c>
       <c r="AK57">
         <v>0</v>
       </c>
       <c r="AL57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
         <v>11400.705</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:41">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7406,24 +7754,30 @@
         <v>0.35027419740205</v>
       </c>
       <c r="AI58">
+        <v>0.09517180271114277</v>
+      </c>
+      <c r="AJ58">
         <v>1992</v>
       </c>
-      <c r="AJ58">
-        <v>0</v>
-      </c>
       <c r="AK58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL58">
         <v>1</v>
       </c>
       <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
         <v>92500</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:41">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7522,24 +7876,30 @@
         <v>0.35027419740205</v>
       </c>
       <c r="AI59">
+        <v>0.09517180271114277</v>
+      </c>
+      <c r="AJ59">
         <v>1992</v>
       </c>
-      <c r="AJ59">
-        <v>0</v>
-      </c>
       <c r="AK59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL59">
         <v>1</v>
       </c>
       <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
         <v>89322.395</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:41">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7638,24 +7998,30 @@
         <v>0.35027419740205</v>
       </c>
       <c r="AI60">
+        <v>0.09517180271114277</v>
+      </c>
+      <c r="AJ60">
         <v>1992</v>
       </c>
-      <c r="AJ60">
-        <v>0</v>
-      </c>
       <c r="AK60">
         <v>0</v>
       </c>
       <c r="AL60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM60">
+        <v>0</v>
+      </c>
+      <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
         <v>53963.26</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:41">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7754,24 +8120,30 @@
         <v>0.35027419740205</v>
       </c>
       <c r="AI61">
+        <v>0.09517180271114277</v>
+      </c>
+      <c r="AJ61">
         <v>1992</v>
       </c>
-      <c r="AJ61">
-        <v>0</v>
-      </c>
       <c r="AK61">
         <v>0</v>
       </c>
       <c r="AL61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM61">
+        <v>1</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
         <v>160617.27</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:41">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7870,24 +8242,30 @@
         <v>0.3357929879924192</v>
       </c>
       <c r="AI62">
+        <v>0.08980107537411859</v>
+      </c>
+      <c r="AJ62">
         <v>1992</v>
       </c>
-      <c r="AJ62">
-        <v>0</v>
-      </c>
       <c r="AK62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62">
         <v>1</v>
       </c>
       <c r="AM62">
+        <v>0</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
         <v>20000</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:41">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -7986,24 +8364,30 @@
         <v>0.3357929879924192</v>
       </c>
       <c r="AI63">
+        <v>0.08980107537411859</v>
+      </c>
+      <c r="AJ63">
         <v>1992</v>
       </c>
-      <c r="AJ63">
-        <v>0</v>
-      </c>
       <c r="AK63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL63">
         <v>1</v>
       </c>
       <c r="AM63">
+        <v>1</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
         <v>515646</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:41">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -8102,24 +8486,30 @@
         <v>0.3357929879924192</v>
       </c>
       <c r="AI64">
+        <v>0.08980107537411859</v>
+      </c>
+      <c r="AJ64">
         <v>1992</v>
       </c>
-      <c r="AJ64">
-        <v>0</v>
-      </c>
       <c r="AK64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL64">
         <v>1</v>
       </c>
       <c r="AM64">
+        <v>1</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
         <v>375305</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:41">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -8218,24 +8608,30 @@
         <v>0.3357929879924192</v>
       </c>
       <c r="AI65">
+        <v>0.08980107537411859</v>
+      </c>
+      <c r="AJ65">
         <v>1992</v>
       </c>
-      <c r="AJ65">
-        <v>0</v>
-      </c>
       <c r="AK65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65">
         <v>1</v>
       </c>
       <c r="AM65">
+        <v>1</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
         <v>291611</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:41">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -8334,24 +8730,30 @@
         <v>0.3357929879924192</v>
       </c>
       <c r="AI66">
+        <v>0.08980107537411859</v>
+      </c>
+      <c r="AJ66">
         <v>1992</v>
       </c>
-      <c r="AJ66">
-        <v>0</v>
-      </c>
       <c r="AK66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL66">
         <v>1</v>
       </c>
       <c r="AM66">
+        <v>0</v>
+      </c>
+      <c r="AN66">
+        <v>1</v>
+      </c>
+      <c r="AO66">
         <v>20000</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:41">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -8450,24 +8852,30 @@
         <v>0.3357929879924192</v>
       </c>
       <c r="AI67">
+        <v>0.08980107537411859</v>
+      </c>
+      <c r="AJ67">
         <v>1992</v>
       </c>
-      <c r="AJ67">
-        <v>0</v>
-      </c>
       <c r="AK67">
         <v>0</v>
       </c>
       <c r="AL67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM67">
+        <v>0</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
         <v>18500</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:41">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8566,24 +8974,30 @@
         <v>0.3357929879924192</v>
       </c>
       <c r="AI68">
+        <v>0.08980107537411859</v>
+      </c>
+      <c r="AJ68">
         <v>1992</v>
       </c>
-      <c r="AJ68">
-        <v>0</v>
-      </c>
       <c r="AK68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL68">
         <v>1</v>
       </c>
       <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
         <v>115418</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:41">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8682,24 +9096,30 @@
         <v>0.3357929879924192</v>
       </c>
       <c r="AI69">
+        <v>0.08980107537411859</v>
+      </c>
+      <c r="AJ69">
         <v>1992</v>
       </c>
-      <c r="AJ69">
-        <v>0</v>
-      </c>
       <c r="AK69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL69">
         <v>1</v>
       </c>
       <c r="AM69">
+        <v>0</v>
+      </c>
+      <c r="AN69">
+        <v>1</v>
+      </c>
+      <c r="AO69">
         <v>40600</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:41">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -8798,24 +9218,30 @@
         <v>0.3357929879924192</v>
       </c>
       <c r="AI70">
+        <v>0.08980107537411859</v>
+      </c>
+      <c r="AJ70">
         <v>1992</v>
       </c>
-      <c r="AJ70">
-        <v>0</v>
-      </c>
       <c r="AK70">
         <v>0</v>
       </c>
       <c r="AL70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM70">
+        <v>0</v>
+      </c>
+      <c r="AN70">
+        <v>1</v>
+      </c>
+      <c r="AO70">
         <v>119609</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:41">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -8914,18 +9340,24 @@
         <v>0.3357929879924192</v>
       </c>
       <c r="AI71">
+        <v>0.08980107537411859</v>
+      </c>
+      <c r="AJ71">
         <v>1992</v>
       </c>
-      <c r="AJ71">
-        <v>0</v>
-      </c>
       <c r="AK71">
         <v>0</v>
       </c>
       <c r="AL71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM71">
+        <v>1</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
         <v>636681</v>
       </c>
     </row>

--- a/output/intered.xlsx
+++ b/output/intered.xlsx
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_LatinAmerica</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Africa</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Confessional</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>LatinAmerica</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Confessional</t>
+  </si>
+  <si>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
-  </si>
-  <si>
-    <t>Total_Fondos</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_Privados</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>Donor_Aid_Budget</t>
+  </si>
+  <si>
+    <t>Total_Funds</t>
+  </si>
+  <si>
+    <t>%_Private_Funds</t>
+  </si>
+  <si>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2620</v>
+        <v>2870.311589353206</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4940</v>
+        <v>5191.140356354663</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3">
         <v>1</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8820</v>
+        <v>8947.741473873051</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8320</v>
+        <v>10594.98659239237</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1620</v>
+        <v>1909.084588129339</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7800</v>
+        <v>9502.243585046588</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9950</v>
+        <v>12227.21453003286</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5130</v>
+        <v>6128.19547247793</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3970</v>
+        <v>4729.735976516416</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8810</v>
+        <v>11155.84524560499</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10380</v>
+        <v>14239.03920301361</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2260</v>
+        <v>2100.656463590606</v>
       </c>
       <c r="D13">
         <v>548592</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1330</v>
+        <v>1286.515571617672</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2120</v>
+        <v>2812.435974421079</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2537,7 +2537,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>9970</v>
+        <v>17288.8595992193</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2659,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2710</v>
+        <v>2898.942214704482</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5340</v>
+        <v>5555.389721901988</v>
       </c>
       <c r="D18">
         <v>578035</v>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM18">
         <v>1</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9040</v>
+        <v>9271.398233246389</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11810</v>
+        <v>13825.35808833117</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4410</v>
+        <v>5082.354756663512</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5610</v>
+        <v>6336.709213679884</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10750</v>
+        <v>12808.034586422</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9660</v>
+        <v>11286.24301624575</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1780</v>
+        <v>1955.461557360978</v>
       </c>
       <c r="D25">
         <v>4350000</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>9270</v>
+        <v>10385.96443195552</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>2460</v>
+        <v>2217.474008566157</v>
       </c>
       <c r="D27">
         <v>548592</v>
@@ -4001,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>1220</v>
+        <v>1357.563719132622</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>1350</v>
+        <v>1303.425880277445</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4245,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>2120</v>
+        <v>2828.483778716848</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>11530</v>
+        <v>17610.30663334184</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>2860</v>
+        <v>2965.153206179127</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4611,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>9310</v>
+        <v>9477.887185090232</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -4733,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>5540</v>
+        <v>5660.517066940175</v>
       </c>
       <c r="D34">
         <v>450000</v>
@@ -4835,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="AL34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM34">
         <v>1</v>
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>10710</v>
+        <v>10883.31535948899</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1990</v>
+        <v>2024.117324382548</v>
       </c>
       <c r="D36">
         <v>4350000</v>
@@ -5099,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>11080</v>
+        <v>11627.81065059172</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5221,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>6320</v>
+        <v>6711.616186806423</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5343,7 +5343,7 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>4970</v>
+        <v>5360.226632400601</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -5465,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>2610</v>
+        <v>2264.394087033834</v>
       </c>
       <c r="D40">
         <v>280000</v>
@@ -5587,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>1360</v>
+        <v>1410.426304742003</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>2830</v>
+        <v>2286.013198234259</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -5831,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>1480</v>
+        <v>1401.753174264641</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>3450</v>
+        <v>2612.856880840196</v>
       </c>
       <c r="D44">
         <v>2500000</v>
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>3460</v>
+        <v>3137.260298393558</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6197,7 +6197,7 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>13220</v>
+        <v>16146.07242861928</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -6319,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>1560</v>
+        <v>1640.18070024053</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6441,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>10510</v>
+        <v>9839.050190896</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>6530</v>
+        <v>5996.49696468919</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -6807,7 +6807,7 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>6310</v>
+        <v>6301.696269820412</v>
       </c>
       <c r="D51">
         <v>2500000</v>
@@ -6909,7 +6909,7 @@
         <v>0</v>
       </c>
       <c r="AL51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM51">
         <v>1</v>
@@ -6929,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>2960</v>
+        <v>2361.056581219794</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>1440</v>
+        <v>1441.783971398429</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>3510</v>
+        <v>2735.187532014817</v>
       </c>
       <c r="D54">
         <v>2500000</v>
@@ -7295,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>3620</v>
+        <v>3210.869677115934</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7417,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>10840</v>
+        <v>14093.81249338665</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7539,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>1600</v>
+        <v>1751.664428859304</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>10170</v>
+        <v>10037.20149040966</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>6340</v>
+        <v>6114.227214287786</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -8027,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>6480</v>
+        <v>6661.86504232374</v>
       </c>
       <c r="D61">
         <v>199899</v>
@@ -8129,7 +8129,7 @@
         <v>0</v>
       </c>
       <c r="AL61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM61">
         <v>1</v>
@@ -8149,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>12220</v>
+        <v>10239.48134799327</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>3040</v>
+        <v>2425.561644739583</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -8393,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>3570</v>
+        <v>2886.897484630703</v>
       </c>
       <c r="D64">
         <v>266768</v>
@@ -8515,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>3800</v>
+        <v>3242.636921959078</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="C66">
-        <v>8260</v>
+        <v>12358.30403621203</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -8759,7 +8759,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>1690</v>
+        <v>1875.732161108182</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -8881,7 +8881,7 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>9410</v>
+        <v>10205.79575322194</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>6120</v>
+        <v>6262.368904654469</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -9247,7 +9247,7 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>6640</v>
+        <v>7026.178156858586</v>
       </c>
       <c r="D71">
         <v>199899</v>
@@ -9349,7 +9349,7 @@
         <v>0</v>
       </c>
       <c r="AL71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM71">
         <v>1</v>

--- a/output/intered.xlsx
+++ b/output/intered.xlsx
@@ -3882,7 +3882,7 @@
         <v>2217.474008566157</v>
       </c>
       <c r="D27">
-        <v>548592</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>910487</v>
@@ -4980,7 +4980,7 @@
         <v>2024.117324382548</v>
       </c>
       <c r="D36">
-        <v>4350000</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>1203129</v>
@@ -6685,7 +6685,7 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>397.3416704698143</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -6935,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>280773.135</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -7057,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>2436.5</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -7176,10 +7176,10 @@
         <v>2735.187532014817</v>
       </c>
       <c r="D54">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>145743.81</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -7301,7 +7301,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>163717.08</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -7414,7 +7414,7 @@
         <v>95</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>14093.81249338665</v>
@@ -7423,7 +7423,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -7545,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>11400.705</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>92500</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -7789,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>89322.395</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -7902,16 +7902,16 @@
         <v>99</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>411.0205730866137</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>53963.26</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -8033,7 +8033,7 @@
         <v>199899</v>
       </c>
       <c r="E61">
-        <v>160617.27</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -9125,7 +9125,7 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>407.2896431385426</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -9250,7 +9250,7 @@
         <v>7026.178156858586</v>
       </c>
       <c r="D71">
-        <v>199899</v>
+        <v>0</v>
       </c>
       <c r="E71">
         <v>160617.27</v>
